--- a/Excel/Vagas_Encontradas.xlsx
+++ b/Excel/Vagas_Encontradas.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\2TIAF-Challenge-01-RPA\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\UiPath\2TIAF-Challenge-01-RPA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEB9049-2943-4D7A-8917-4FB878562F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB6A29A-C150-4A7B-A752-7B490950C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{ED9763E5-5102-400E-BBE4-807D7DADD688}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Descrição da Vaga</t>
   </si>
@@ -33,111 +45,278 @@
     <t>Salario</t>
   </si>
   <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Beneficios</t>
+  </si>
+  <si>
+    <t>Link da Vaga</t>
+  </si>
+  <si>
+    <t>"	Programador Delphi 
+"	Resolução de chamados do sistema
+"	Implantação de sistemas
+"	Realizar reuniões internas e externas 
+"	Realizar treinamentos internos e externos
+"	Eventualmente atendimento de chamados externos "	Delphi 2010 e Tokyo (Vcl, Firemonkey, Rest Api, Json)
+"	Criação de relatórios em FastReport (Delphi Tokyo) e Rave Reports
+"	Banco de dados SQL e Firebird 
+"	Experiência mínima 2 anos
+"	Sistemas ERP (Contas a pagar/receber, controle de estoque, cadastros, conciliação bancária, compras, DRE, etc)
+"	Módulos fiscais (NFC-e, SAT, NF-e, CT-e, MDF-e, SPED)
+"	CNH B</t>
+  </si>
+  <si>
+    <t>De R$ 5.001,00 a R$ 6.000,00</t>
+  </si>
+  <si>
+    <t>Campinas - SP (1)</t>
+  </si>
+  <si>
+    <t>Estacionamento, Restaurante na empresa, Vale Transporte</t>
+  </si>
+  <si>
+    <t>Quero me candidatar</t>
+  </si>
+  <si>
+    <t>Está vaga é para programador com formação tradicional ou auto didata com conhecimento em funis typebot. 
+Programação WEB
+Desenvolvimento PHP, MySQL, CSS, Javascript e HTML.
+Desenvolvimento e hospedagem de landing pages, páginas de quiz, entre outras. 
+Desenvolvimento, integração e manutenção de funis typebot.
+ Atividades:
+- Criação de fluxos/ funis de vendas no typebot; 
+- Criação de páginas web com HTML, CSS e WordPress com Elementor.
+- Produção de conteúdo em páginas existentes,
+-  Desenvolvimento de websites, comunicação visual, criação de design e layout;
+- Programação de websites e design de interface;
+- Criação elementos gráficos (foto e vetor), ilustrações e objetos gráficos (botões, ícones, banners, portais, entre outros);
+- Manutenção do layout dos sistemas Web (sites, hotsites, páginas, interfaces gráficas);
+- Gestão e manutenção de servidor de hospedagem e dominios;
+- Geração de campanhas de  E-mails Marketing, WhatsApp Marketing;
+- Geração de relatórios com análises e acompanhar as ações das campanhas de marketing;</t>
+  </si>
+  <si>
+    <t>De R$ 3.001,00 a R$ 4.000,00</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro - RJ (2)</t>
+  </si>
+  <si>
+    <t>Sem beneficio</t>
+  </si>
+  <si>
+    <t>- O profissional será responsável pela sustentação de sistema de gestão de comércio varejista, pela avaliação de demandas de usuários.
+- Implementar e documentar possíveis inovações.
+ CONHECIMENTOS NECESSÁRIOS:
+- Emissão de notas fiscais (NFe, NFCe;
+- Recepção de notas fiscais: importação de XM; 
+- Cobrança escritural e emissão de boletos;
+- TEF
+- SPED
+- Experiência com os componentes: ACB; QuickReport e DeveloperExpress (cxGrid).
+- Será um diferencial se você tiver conhecimento de firemonkey e firebird! :)</t>
+  </si>
+  <si>
     <t>A Combinar</t>
   </si>
   <si>
-    <t>Responsabilidades:
-- Atendimento de porta para cirurgias de urgências;
-- Cadastro da requisição no sistema informatizado;
-- Organização de documentação.
- Requisitos: 
-- Conhecimento de informática
-- Ensino Médio Completo</t>
-  </si>
-  <si>
-    <t>Até R$ 1.000,00</t>
-  </si>
-  <si>
-    <t>Você é estudante de Ciências Contábeis ou Administração e está em busca de experiências profissionais?Nós do GRUPO BAUMINAS estamos com vagas de Estágio para estudantes que desejam atuar em nosso departamento Financeiro no setor de Contas a Pagar.
-Venha aprender conosco!! Busca de boletos no DDA (sistema de busca de boletos dos bancos) nos bancos, para conciliação com as respectivas notas fiscais em nosso sistema;Envio de relatório das notas não conciliadas no DDA;Busca de arquivos de retorno de pagamentos nos bancos;Emissão de comprovantes de pagamentos nos bancos e disponibilização na nossa rede;Suporte aos demais componentes da equipe de Contas a Pagar, bem como outras atividades inerentes ao processo. Habilidades:Vontade de aprendizagem;Agilidade;Gosta de trabalho em equipe;Bom relacionamento;Comprometimento.
-Desejável:Noções básicas de Excel e Word.</t>
-  </si>
-  <si>
-    <t>Fazer o controle de vendas por meio do sistema utilizado pela empresa; 
-Organizar as documentações e os processos de venda;
-Entrar em contato com os clientes, caso falte algum dado necessário para efetuar a venda;
-Alimentar o sistema com as informações dos clientes, como CNPJ, endereço e pontos de contato, para que os pedidos sejam faturados;
-Elaborar o relatório de vendas, especificando as expectativas do cliente, os valores da venda, quem foi o vendedor e os pontos importantes da negociação;
-Quando necessário, prestar suporte aos clientes em relação aos pagamentos, às datas de vencimento, à emissão de boletos e aos questionamentos em relação aos produtos, fazendo os direcionamentos necessários;
-Contatar os clientes no momento de pós-venda para entender se o produto está atendendo às necessidades conforme o esperado; Dar apoio aos vendedores nas tarefas do dia a dia ocasionalmente.
- Cursando Ensino Superior; 
-Conhecimento básico do pacote Office, com ênfase em Excel;
- Fácil acesso à região do Pari/São Paulo</t>
-  </si>
-  <si>
-    <t>De R$ 1.001,00 a R$ 2.000,00</t>
-  </si>
-  <si>
-    <t>Cursando Superior em Química, ou curso Técnico Químico</t>
-  </si>
-  <si>
-    <t>Contribuir na definição de calendários estratégicos para clientes; Revisar textos e imagens para templates de WhatsApp, e-mail marketing e push notifications; Programar disparos no RD Station (CRM) e UTalk (ferramenta similar ao WApp); Acompanhamento das campanhas ativas; Colaborar no gerenciamento das Redes Sociais (Facebook, Instagram e LinkedIn), incluindo respostas em tempo real, bem como o desenvolvimento de conteúdos persuasivos para o canal; Apoio na criação de estratégias para o contínuo desenvolvimento da presença da marca no mercado inserido; Colaboração na organização de eventos. Hard Skills: Pacote Office intermediário; Noções de Redação Publicitária e Copywriting; Noções de marketing digital, incluindo gestão de mídias sociais, régua de comunicação e email marketing; Desejável noções de RD Station (CRM); Familiaridade com a ferramenta Chat GPT; Disponibilidade para eventos e execuções de atividades presenciais.
-Soft Skills: Senso de prioridade e organização; Capacidade analítica, que tenha atenção aos detalhes; Boa comunicação Oral e Escrita; Proatividade e agilidade; Bom relacionamento interpessoal; Amor pela inovação e tecnologia.</t>
-  </si>
-  <si>
-    <t>Produzir e gerir conteúdo para mídias digitais; Definir e criar campanhas em plataforma de marketing digital, produção de emails, produção de artigos para site Conhecimento com Excel / intermediário.
-Corel Draw, Photoshop, Mídias Sociais</t>
-  </si>
-  <si>
-    <t>Assistirá e acompanhará as atividades do departamento do administrativo, realizando suporte ao setor incluindo controle e organização de documentos, gerenciamento de agendas, preparação de relatórios e correspondências. Realizar impressão, digitalização e arquivamento de documentos diversos. Gerenciar o controle de estoque e realizar requisições de insumos conforme necessário. Auxiliar na separação e distribuição de materiais e suprimentos para diferentes departamentos. Colaborar com outros membros da equipe para garantir a eficiência e a precisão nas operações administrativas. Manter a confidencialidade de informações sensíveis e garantir o cumprimento das políticas da empresa. Residir em Jundiaí ou proximidades, estar cursando Superior ou Técnico em Administração, Gestão Empresarial, Gestão de Negócios e Inovação, ou áreas correlatas.</t>
-  </si>
-  <si>
-    <t>Atuar e ser desenvolvido na área de engenharia</t>
-  </si>
-  <si>
-    <t>Atividades administrativas: pesquisar, planilhar e gerar relatórios em MS Excel; elaborar e/ou preencher planilhas em MS Excel; elaborar e editar documentos em MS Word; manuseio de sistemas de gestão (ERP) e plataformas de e-commerce; entre outras atividades de cunho administrativo. Atendimento ao cliente: relacionamento com o cliente em todos os meios de comunicação disponibilizados pela empresa (e-mail, presencialmente, Facebook, plataformas de venda, Whatsapp, etc.). Tratamento Logístico e de Expedição: controle de inventário e gerenciamento de estoque, entre outras atividades de apoio ao setor logístico. Características pessoais: pessoa concentrada, cautelosa, organizada, com senso de responsabilidade e proatividade. Boa habilidade numérica para contagens rápidas e tarefas ágeis. Conhecimentos básicos: conhecimentos básicos em matemática para realizar contagens rápidas de cabeça. Conhecimento necessário em informática: domínio básico a intermediário do MS Excel para preenchimento de células e tabulação de dados.</t>
-  </si>
-  <si>
-    <t>Gestãoi de processos internos do escritório
-Financeiro ( contas a pagar, contas a receber, fluxo de caixa)
-Realização de NPS com Clientes</t>
-  </si>
-  <si>
-    <t>Organização de dados recebidos em Excel; Digitalização de documentos físicos e PDF (Garantir que a qualidade da digitalização seja mantida, evitando distorções, perda de informações e erros); organizar e classificar os documentos digitalizados de acordo com os padrões da empresa 
-Conhecimento básicos de Windows e Pacote Office.</t>
-  </si>
-  <si>
-    <t>Auxiliar na preparação de relatórios financeiros, incluindo demonstrações de resultados, balanços patrimoniais e fluxos de caixa.
-Realizar análises financeiras para suportar tomadas de decisão.
-Auxiliar na gestão de contas a pagar e a receber.
-Participar da elaboração e controle de orçamentos.
-Colaborar com outras áreas da empresa para garantir a integração e a precisão dos dados financeiros.
-Realizar outras tarefas financeiras conforme necessário. Conhecimento básico de princípios contábeis e financeiros.
-Habilidade analítica e atenção aos detalhes.
-Fortes habilidades de comunicação verbal e escrita.
-Capacidade de trabalhar de forma independente e em equipe.
-Conhecimento de Excel e outras ferramentas de análise financeira será considerado um diferencial.</t>
-  </si>
-  <si>
-    <t>Vaga 01
-Vivência no pacote office - Excel (intermediário )
-Atendimento ao cliente via chat, telefone, e-mail e whatts
-Vaga 02 
-Fará estágio no faturamento Pacote office , excel intermediário (Proc V, C, Soma, Tabela dinâmica, gráficos, filtros)</t>
-  </si>
-  <si>
-    <t>Auxiliar na criação de campanhas de marketing
-Apoiar na gestão de redes sociais da empresa
-Realizar análise de resultados das ações de marketing
-Participar de reuniões e brainstormings para desenvolvimento de estratégias
-Elaborar relatórios e apresentações de resultados
-Contribuir para o desenvolvimento de novas ideias e projetos Cursando ensino superior em Marketing, Publicidade e Propaganda, Administração ou áreas afins
-Conhecimento em marketing digital e redes sociais
-Boa comunicação verbal e escrita
-Experiência prévia em estágios na área de marketing
-Conhecimento em ferramentas de análise de dados
-Inglês intermediário</t>
-  </si>
-  <si>
-    <t>Criação de conteúdos digitais e impressos para campanhas internas e externas.
-Criação de conteúdos personalizados conforme a demanda dos clientes.
-Assistência nas demais rotinas da equipe de Marketing; Cursando Superior em Marketing.- Publicidade Propaganda</t>
-  </si>
-  <si>
-    <t>A Prefeitura de Londrina possui oportunidades em mais de 20 secretarias, divididas por toda a região, ao finalizar sua inscrição, entraremos em contato informando as vagas compativeis com o seu perfil.
-Carga Horária:
-Opções de 4, 5 ou 6 horas diárias
-Atividades:As atividades a serem desempenhadas variam de acordo com a secretaria. Os detalhes sobre as responsabilidades serão informados durante o processo de chamada para a vaga. O candidato deve estar cursando AdministraçãoNão estar no último ano da graduação;</t>
+    <t>Belo Horizonte - MG (1)</t>
+  </si>
+  <si>
+    <t>Desenvolvedor de sistema, suporte em rede e manutenção; Atuar na manutenção de sistema desenvolvido em VBA e Banco de dados MS Access; Poderá utilizar outras linguagens de programação para acesso ao banco de dados e futura migração de sistema. Experiência em banco de dados, consulta SQL, Desejável conhecimento em Visual Basic, Access, API e/ou outras linguagens; Conexão com o sistema OMIE, Excel, banco de dados e tabela dinâmica; Arquitetura cliente-servidor.</t>
+  </si>
+  <si>
+    <t>Guarulhos - SP (1)</t>
+  </si>
+  <si>
+    <t>Vale Transporte</t>
+  </si>
+  <si>
+    <t>Programador web
+  Está vaga é para programador com formação tradicional ou auto didata com conhecimento em funis typebot. 
+Programação WEB
+Desenvolvimento PHP, MySQL, CSS, Javascript e HTML.
+Desenvolvimento e hospedagem de landing pages, páginas de quiz, entre outras. 
+Desenvolvimento, integração e manutenção de funis typebot.
+Atividades:
+- Criação de fluxos/ funis de vendas no typebot; 
+- Criação de páginas web com HTML, CSS e WordPress com Elementor.
+- Produção de conteúdo em páginas existentes,
+-  Desenvolvimento de websites, comunicação visual, criação de design e layout;
+- Programação de websites e design de interface;
+- Criação elementos gráficos (foto e vetor), ilustrações e objetos gráficos (botões, ícones, banners, portais, entre outros);
+- Manutenção do layout dos sistemas Web (sites, hotsites, páginas, interfaces gráficas);
+- Gestão e manutenção de servidor de hospedagem e dominios;
+- Geração de campanhas de  E-mails Marketing, WhatsApp Marketing;
+- Geração de relatórios com análises e acompanhar as ações das campanhas de marketing; Conhecimentos em:
+- Design gráfico e edição de imagens;
+- WordPress e Elementor; 
+- PHP, HTML, Java Script, Css;
+- Banco de Dados My-SQL;
+- Adobe Photoshop, Meta Business Suite e Edição de vídeo;
+- Google Analytics, Adword e SEO;
+- Funis/fluxos typebot
+Pré-requisitos para candidatura:
+- Ser PJ (possuir CNPJ ou MEI de prestação de serviços);
+- Residir próximo ao bairro de Copacabana/RJ; 
+- Comunicação Assertiva;
+- Dedicação e dinamismo.</t>
+  </si>
+  <si>
+    <t>Operar e Programar Centro de Usinagem. Realizar usinagem em tornos CNC de peças; Fazer alterações necessárias em programas; Interpretação de ordem de fabricação e desenho técnico do produto.
+ Ensino médio completo.</t>
+  </si>
+  <si>
+    <t>De R$ 4.001,00 a R$ 5.000,00</t>
+  </si>
+  <si>
+    <t>Diadema - SP (1)</t>
+  </si>
+  <si>
+    <t>Seguro de Vida em Grupo, Cesta Básica, Vale Transporte</t>
+  </si>
+  <si>
+    <t>Elaborar programas para usinagem de peças, utilizando o software específico, definindo as fases de produção para cada tipo de servi-						
+cos, mediante análise do desenho técnico, avaliando as especificações técnicas das peças, visando inserí-los nos compartimentos das 						
+máquinas que farão os processos de usinagem.						
+Elaborar programas para usinagem de peças, utilizando o software específico, definido as fases de produção para cada tipo de servi-						
+ços, mediante análise do desenho técnico, avaliando as especificações técnicas das peças, visando inserí-los nos compartimentos das						
+máquinas que farão os processos de usinagem;						
+Elaborar programas CNC e simular operação de furação e torneamento, conforme especificações técnicas das peças a serem usinadas;						
+Determinar as ferramentas, parâmetros e estratégias de usinagem mais adequadas á operação em programação;						
+Especificar sequência de operação de usinagem para fabricação;						
+Ajustar e operar torno de usinagem por meio de um comando numérico computadorizado (CNC), de acordo com as normas e procedi-						
+mentos técnicos de qualidade, segurança e saúde;						
+Preparar e operar torno CNC, obedecendo os programas desenvolvidos, aplicando comandos no painel de controle, trocando ferramen-						
+tas e dispositivos, de acordo com as especificações técnicas das peças, objetivando conduzir os processos de usinagem designados;						
+Acessar os desenhos , via solidworks (desenhos técnicos), para interpretação e entendimento sobre os programas a serem desenvol-						
+vidos;						
+Realizar limpeza das máquinas do Centro de Usinagem, procurando retirar os cavacos e/ou resíduos de produção, a fim de liberá-la						
+para troca de matéria prima e possibilitar a continuidade dos processos de usinagem;						
+Efetuar aferição das peças fabricadas, utilizando instrumentos de medição, adequados a cada finalidade, verificando a conformidade						
+frente aos desenho técnico existente, identificando possíveis irregularidades, a fim de encaminhar para correção caso necessário e/ou						
+enviar para a expedição, com a exatidão;						
+ REQUISITOS DO CARGO (COMPETÊNCIAS MÍNIMAS EXIGIDAS)						
+ESCOLARIDADE:			Ensino Médio Profissionalizante (Senai e afins) e/ou Ensino Médio Completo			
+TEMPO DE EXPERIÊNCIA			3 anos			
+CONHECIMENTOS E CURSOS			Conhecimentos Avançados de Programação, Preparação e Operação de Torno CNC e Centro de Usina-			
+NECESSÁRIOS			gem			
+			Domínio na Leitura de Interpretação de Desenhos Mecânicos.			
+			Conhecimentos em Tornos ROMI e comandos SIEMENS e FANUC.			
+FERRAMENTAS E 			Fresa de topo, Cabeçote de faceamento, Cabeçote de usinagem lateral e correlatos.			
+INSTRUM. DE MEDIÇÃO 						
+			Habilidade de aplicar os instrumentos de medição (Paquímetro, Micrômetro e afins).</t>
+  </si>
+  <si>
+    <t>São Paulo - SP (1)</t>
+  </si>
+  <si>
+    <t>Tíquete Refeição, Cesta Básica, Vale Transporte</t>
+  </si>
+  <si>
+    <t>O Operador e Programador de Torno CNC deverá realizar: Planejar as etapas e os processos de fabricação da usinagem em torno CNC. O profissional deverá preparar, programar e operar a máquina. Preparar e carregar matérias-primas e peças nas máquinas.
+ Habilidade na operação de máquinas e ferramentas CNC, bem como de ferramentas de medição de precisão. Boas habilidades de comunicação, desejável cursos e/ou experiência na área.</t>
+  </si>
+  <si>
+    <t>Itapevi - SP (1)</t>
+  </si>
+  <si>
+    <t>Tíquete Alimentação, Vale Transporte</t>
+  </si>
+  <si>
+    <t>Dar suporte aos demais operadores.  Programar, preparar e operar todas as máquinas CNCs do setor.  Garantir a qualidade do produto durante a fabricação se atentando as especificações de desenhos e instruções de trabalho.  Programar as peças de forma que a usinagem seja feita dentro do tempo determinado pelo processo. 
+Realizar apontamento dos tempos de setup e produção no terminal para alimentação do sistema.  Cumprir os procedimentos da empresa.  Zelar pelos equipamentos da empresa.  Manter a ordem e limpeza no local de trabalho. Curso de aprendizagem industrial.  Curso de programação de centro de usinagem.  Curso de metrologia e interpretação de desenho técnico.  Conhecimento na realização de Setup.  Conhecimento em afiação e troca de ferramentas para usinagem.  Conhecimento em dispositivos de usinagem.  Experiência na função.  Habilidade em leitura e interpretação de desenho técnico mecânico.  Habilidade em máquinas com controle numérico e máquinas convencionais.  Habilidade em leitura e interpretação dos programas de centros de usinagem CNC.  Conhecimento em manutenção preventiva das ferramentas e dispositivos.  Experiência em programação (linguagem ISO, comando FANUC).  Conhecimento de todos os comandos das máquinas.  Conhecimento em ferramentas de usinagem.</t>
+  </si>
+  <si>
+    <t>Indaiatuba - SP (1)</t>
+  </si>
+  <si>
+    <t>Restaurante na empresa, Participação nos lucros</t>
+  </si>
+  <si>
+    <t>Atuará no desenvolvimento e manutenção de sistemas internos
+Desenvolvimento de sistemas : Front End, Back End e PL/SQL,
+Linguagens de programação: Python, C# e Javascript,  HTML e CSS.
+Git e Github, Api Rest, Django, React e projetos MVC.</t>
+  </si>
+  <si>
+    <t>São Paulo - SP (2)</t>
+  </si>
+  <si>
+    <t>Assistência Médica / Medicina em grupo, Assistência Odontológica, Seguro de Vida em Grupo, Tíquete Alimentação, Estacionamento, Restaurante na empresa, Vale Transporte</t>
+  </si>
+  <si>
+    <t>Realizar manutenção de sistemas e aplicações; selecionar recursos de 
+trabalho, tais como metodologias de desenvolvimento de sistemas. 
+linguagem de programação e ferramentas de desenvolvimento. Planejando 
+ etapas e ações de trabalho. Codificar os programas de acordo com a 
+ tecnologia definida utilizando para isso os conceitos de lógica de 
+ programação. Formação em Ciência da Computação, Engenharia de Software ou áreas relacionadas
+Capacidade de trabalhar em equipe e se adaptar a novos desafios</t>
+  </si>
+  <si>
+    <t>Assistência Médica / Medicina em grupo, Assistência Odontológica, Convênio com Farmácia, Cesta Básica, Estacionamento, Restaurante na empresa, Vale Transporte, Participação nos lucros</t>
+  </si>
+  <si>
+    <t>Programação de máquina CNC de Corte Laser; Realizar leitura e interpretação de desenhos técnicos; Programar software conforme ordens de serviço; Acompanhar processos e monitorar máquinas em produção; Responder pelo manuseio de equipamentos com tecnologia CNC. Necessário curso de programação de CNC; Desejável curso de operador de empilhadeira.
+Experiência como programador de máquina CNC e vivência com operação de corte a laser.</t>
+  </si>
+  <si>
+    <t>Curitiba - PR (1)</t>
+  </si>
+  <si>
+    <t>Assistência Médica / Medicina em grupo, Assistência Odontológica, Seguro de Vida em Grupo, Tíquete Refeição, Combustível, Restaurante na empresa, Vale Transporte</t>
+  </si>
+  <si>
+    <t>· Programar e operar máquinas injetoras, verificando ordens de produção e instruções de trabalho, orientação e prioridades definidas, regulando, conferindo, inserindo e/ou ajustando parâmetros, executando operações, aprovando peças iniciais e liberando processo produtivo, a fim de produzir peças, atender normas de qualidade e atingir metas de produção.
+· Efetuar apontamentos das atividades realizadas e de produção para fornecer dados de controle estatístico do processo produtivo.
+· Acompanhar processo produtivo e responder pelo volume de produção das máquinas sob sua responsabilidade, solicitando abastecimento, identificando e resolvendo possíveis problemas operacionais para garantir metas de produtividade e qualidade.
+· Inspecionar qualidade das peças produzidas, identificando e ajustando distorções.
+· Conferir se os checklists das injetoras e demais equipamentos pertinentes a sua área de atuação estão sendo realizados, solicitando materiais e manutenções ao superior imediato quando necessário.
+· Apoiar superior imediato, auxiliando na organização operacional da equipe do setor.
+· Treinar colegas do setor para capacitar funcionários no desenvolvimento das atividades e assegurar a eficiência e eficácia dos processos.
+· Manter limpo e organizado o local de trabalho, máquinas e/ou equipamentos utilizados.
+· Cumprir com as normas e procedimentos da empresa.</t>
+  </si>
+  <si>
+    <t>Caxias do Sul - RS (1)</t>
+  </si>
+  <si>
+    <t>Assistência Médica / Medicina em grupo, Assistência Odontológica, Convênio com Farmácia, Tíquete Alimentação, Vale Transporte, Participação nos lucros</t>
+  </si>
+  <si>
+    <t>Responsável por criar sites, softwares, banco de dados, aplicativos ou outras plataformas que utilizamos na internet Experiência profissional comprovada como programador ou desenvolvedor web
+Experiência prática com várias linguagem de programação, como PHP, ASP.NET, JavaScript e Ruby on Rails
+Familiaridade em trabalhar com HTML/CSS
+Conhecimento de programação orientada a objetos e desenvolvimento de aplicativos web
+Atenção aos detalhes
+Habilidades de gestão de projetos em um ambiente de trabalho dinâmico
+Habilidades de comunicação e trabalho em equipe
+Bacharelado em Ciência da Computação ou área relacionada</t>
+  </si>
+  <si>
+    <t>Taboão da Serra - SP (1)</t>
+  </si>
+  <si>
+    <t>Tíquete Refeição, Vale Transporte</t>
+  </si>
+  <si>
+    <t>Garantir a qualidade da programação do torno CNC, seguindo as normas técnicas. Ensino Médio Completo
+Conhecimento em cabeçote móvel e máquina Nomura - Comandos M70 Mitsubishi.</t>
+  </si>
+  <si>
+    <t>Assistência Médica / Medicina em grupo, Assistência Odontológica, Tíquete Refeição, Vale Transporte</t>
+  </si>
+  <si>
+    <t>Atender demandas de desenvolvimento de sistemas com linguagem Phyton, SQL, Javascript, html5 e css Atender demandas de desenvolvimento de sistemas com linguagem Phyton, SQL, Javascript, html5 e css</t>
+  </si>
+  <si>
+    <t>De R$ 2.001,00 a R$ 3.000,00</t>
+  </si>
+  <si>
+    <t>Goiania - GO (1)</t>
   </si>
 </sst>
 </file>
@@ -148,7 +327,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -196,7 +375,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,42 +385,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -271,12 +450,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -306,6 +502,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,13 +580,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -382,6 +588,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -446,161 +659,346 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1E9350-B2B6-4B19-91AF-03BE4794B743}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
+      <c r="E17" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2FC2B5-CD31-480D-A018-0A218A47E9DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>